--- a/results/global_results_lr0.01_clients10_MNIST.xlsx
+++ b/results/global_results_lr0.01_clients10_MNIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>71.70999999999999</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>93.01000000000001</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>93.98</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>94.7</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>94.84999999999999</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>94.94</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>95.08</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>95.25</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,87 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>95.11</v>
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.74</v>
       </c>
     </row>
   </sheetData>
